--- a/templates/maintenance.xlsx
+++ b/templates/maintenance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Workbench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Documentos\git tracked\move-forms-creator\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,9 +294,48 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -306,47 +345,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,11 +630,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -644,179 +644,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -829,21 +844,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -854,31 +854,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="50" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" ht="389.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">

--- a/templates/maintenance.xlsx
+++ b/templates/maintenance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Documentos\git tracked\move-forms-creator\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\git tracked\move-forms-creator\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,6 +294,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -330,23 +342,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,7 +369,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,11 +633,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -644,194 +647,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -844,6 +832,21 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -854,31 +857,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="50" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="389.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
